--- a/Radio Conformance Test/SLE射频系统开发.xlsx
+++ b/Radio Conformance Test/SLE射频系统开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>开始日期</t>
   </si>
@@ -105,6 +105,33 @@
   </si>
   <si>
     <t>打印出测试数据，对测试结果进行自动化判定</t>
+  </si>
+  <si>
+    <t>C:\codes</t>
+  </si>
+  <si>
+    <t>代码文件夹</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>确认读出的数据格式</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1077,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1064,20 +1091,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A8" sqref="$A8:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="56.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.775" customWidth="1"/>
+    <col min="6" max="6" width="56.225" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.775" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1103,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:7">
+    <row r="2" ht="40.5" spans="1:8">
       <c r="A2" s="3">
         <v>45607</v>
       </c>
@@ -1125,8 +1152,11 @@
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" ht="28.8" spans="1:6">
+    <row r="3" ht="27" spans="1:8">
       <c r="A3" s="3">
         <v>45611</v>
       </c>
@@ -1145,8 +1175,11 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" ht="43.2" spans="1:7">
+    <row r="4" ht="40.5" spans="1:8">
       <c r="A4" s="3">
         <v>45617</v>
       </c>
@@ -1168,8 +1201,11 @@
       <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>45618</v>
       </c>
@@ -1188,8 +1224,11 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>45621</v>
       </c>
@@ -1208,8 +1247,11 @@
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>45622</v>
       </c>
@@ -1227,6 +1269,9 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1267,6 +1312,43 @@
       </c>
       <c r="F9" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
